--- a/mtcarsExcel.xlsx
+++ b/mtcarsExcel.xlsx
@@ -1063,7 +1063,7 @@
         <v>3</v>
       </c>
       <c r="G16">
-        <v>5.423999999999999</v>
+        <v>5.424</v>
       </c>
       <c r="H16">
         <v>17.82</v>
